--- a/src/main/resources/data/document with defect.xlsx
+++ b/src/main/resources/data/document with defect.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350E0CD-117F-4BD2-A8A8-07F5C9F1453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="25800" windowHeight="8670"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sheet1"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
+  <calcPr calcId="0" iterate="1"/>
+  <webPublishing css="0" allowPng="1" codePage="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9" count="9">
-  <si>
-    <t>Date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Client</t>
   </si>
@@ -46,35 +49,41 @@
   </si>
   <si>
     <t>DDD</t>
+  </si>
+  <si>
+    <t>A document very important</t>
+  </si>
+  <si>
+    <t>Product 1ml</t>
+  </si>
+  <si>
+    <t>Product 2ml</t>
+  </si>
+  <si>
+    <t>Product 3ml</t>
+  </si>
+  <si>
+    <t>Invoice Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mmm-dd" numFmtId="100"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mmm\-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <u val="none"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <vertAlign val="baseline"/>
-      <sz val="12"/>
-      <strike val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,175 +95,436 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="none">
-        <color rgb="FFC7C7C7"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="thin">
-        <color rgb="FF000000"/>
-      </end>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
-    </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="none">
-        <color rgb="FFC7C7C7"/>
-      </end>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <start style="thin">
-        <color rgb="FF000000"/>
-      </start>
-      <end style="thin">
-        <color rgb="FF000000"/>
-      </end>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="2.856971153846154" customWidth="1"/>
-    <col min="2" max="2" style="0" width="12.284975961538462" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" style="0" width="22.436746794871798" customWidth="1"/>
-    <col min="4" max="4" style="0" width="7.570973557692309" customWidth="1"/>
-    <col min="5" max="5" style="0" width="14.570552884615386" customWidth="1"/>
-    <col min="6" max="16384" style="0" width="11.570733173076924"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>A document very important</t>
-        </is>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>44958</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Product 1ml</t>
-        </is>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -262,7 +532,7 @@
         <v>44958</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -276,7 +546,7 @@
         <v>44958</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -290,7 +560,7 @@
         <v>44958</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
@@ -304,7 +574,7 @@
         <v>44958</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -314,34 +584,32 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="7">
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Product 2ml</t>
-        </is>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -349,7 +617,7 @@
         <v>44958</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -363,7 +631,7 @@
         <v>44958</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -377,7 +645,7 @@
         <v>44958</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -386,18 +654,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:5" customHeight="1" ht="0.75">
+    <row r="17" spans="2:5" ht="0.75" customHeight="1">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="2:5">
       <c r="B18" s="5">
         <v>44958</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -406,50 +674,48 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+    <row r="19" spans="2:5">
+      <c r="B19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="7">
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:5" customHeight="1" ht="0.75">
+    <row r="20" spans="2:5" ht="0.75" customHeight="1">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Product 3ml</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="4" t="s">
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="5">
+        <v>44958</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="5">
-        <v>44958</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
@@ -457,47 +723,47 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" customHeight="1" ht="0.75">
+    <row r="24" spans="2:5" ht="0.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="2:5">
       <c r="B25" s="5">
         <v>44958</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="5">
+        <v>44958</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="5">
+        <v>44958</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="5">
-        <v>44958</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="5">
-        <v>44958</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
@@ -505,26 +771,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+    <row r="28" spans="2:5">
+      <c r="B28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="7">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <mergeCells>
+  <mergeCells count="3">
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B11:D11"/>
   </mergeCells>
-  <printOptions/>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/src/main/resources/data/document with defect.xlsx
+++ b/src/main/resources/data/document with defect.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\DataLoaderStudio\sales-english\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0350E0CD-117F-4BD2-A8A8-07F5C9F1453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C13AEB0-4BA5-4FDA-8FFA-249B48344933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>

--- a/src/main/resources/data/document with defect.xlsx
+++ b/src/main/resources/data/document with defect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRU_SG1\DataLoaderStudio\sales-english\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C13AEB0-4BA5-4FDA-8FFA-249B48344933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27111C00-8098-4D21-8CA8-4768BC77328E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,9 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
